--- a/Api/src/55haitao/api.xlsx
+++ b/Api/src/55haitao/api.xlsx
@@ -4,19 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27195" windowHeight="13095"/>
+    <workbookView windowWidth="19815" windowHeight="8415"/>
   </bookViews>
   <sheets>
-    <sheet name="main" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="haitao" sheetId="1" r:id="rId1"/>
+    <sheet name="maxrebates" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="89">
   <si>
     <t>No.</t>
   </si>
@@ -217,6 +216,72 @@
   </si>
   <si>
     <t>commentAdd</t>
+  </si>
+  <si>
+    <t>/user/collection/stores_list</t>
+  </si>
+  <si>
+    <t>{"v":"v3.1","site-id":"1","p":"web","language":"2","language-o":"2"}</t>
+  </si>
+  <si>
+    <t>obtain succeeded</t>
+  </si>
+  <si>
+    <t>{"deals_count":5}</t>
+  </si>
+  <si>
+    <t>/category/lists</t>
+  </si>
+  <si>
+    <t>/find/store/index</t>
+  </si>
+  <si>
+    <t>{"page_num":1,"page_size":10}</t>
+  </si>
+  <si>
+    <t>/store/index/entered/stores_list</t>
+  </si>
+  <si>
+    <t>{"page_size":"30","category_id":"-1","page_num":"1","page_id":"6"}</t>
+  </si>
+  <si>
+    <t>/deal/category/10002/list</t>
+  </si>
+  <si>
+    <t>{"category_id":"10002","cursor":"0","page_num":"1","source":"pc_index","page_size":"20"}</t>
+  </si>
+  <si>
+    <t>/common/sites</t>
+  </si>
+  <si>
+    <t>/store/pc_storeList_filter</t>
+  </si>
+  <si>
+    <t>/invite/list</t>
+  </si>
+  <si>
+    <t>{"page_num":1,"page_size":10,"status":"invited"}</t>
+  </si>
+  <si>
+    <t>Get list successfully</t>
+  </si>
+  <si>
+    <t>/invite/list/select</t>
+  </si>
+  <si>
+    <t>Get the drop-down menu successfully</t>
+  </si>
+  <si>
+    <t>/personal_center/invite/amount/list</t>
+  </si>
+  <si>
+    <t>返回成功</t>
+  </si>
+  <si>
+    <t>/user/rebates/dashboard</t>
+  </si>
+  <si>
+    <t>/common/track</t>
   </si>
 </sst>
 </file>
@@ -224,12 +289,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -238,13 +303,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="12"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -256,30 +333,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -292,72 +353,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -375,9 +375,72 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -392,10 +455,24 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -414,19 +491,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -438,157 +665,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -599,32 +676,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -646,8 +697,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -667,11 +718,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -699,6 +765,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -707,10 +784,10 @@
     <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -719,154 +796,169 @@
     <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="fill" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="fill" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1221,778 +1313,778 @@
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H21" sqref="H21"/>
+      <selection pane="bottomLeft" activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="10.2916666666667" style="2" customWidth="1"/>
-    <col min="3" max="3" width="37" style="2" customWidth="1"/>
-    <col min="4" max="4" width="14.25" style="2" customWidth="1"/>
-    <col min="5" max="5" width="39.8583333333333" style="2" customWidth="1"/>
-    <col min="6" max="6" width="32.25" style="2" customWidth="1"/>
-    <col min="7" max="7" width="12.3416666666667" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12.0583333333333" style="2" customWidth="1"/>
-    <col min="9" max="9" width="11.175" style="2" customWidth="1"/>
-    <col min="10" max="10" width="20" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="9" style="7"/>
+    <col min="2" max="2" width="10.2916666666667" style="7" customWidth="1"/>
+    <col min="3" max="3" width="37" style="7" customWidth="1"/>
+    <col min="4" max="4" width="14.25" style="7" customWidth="1"/>
+    <col min="5" max="5" width="39.8583333333333" style="7" customWidth="1"/>
+    <col min="6" max="6" width="32.25" style="7" customWidth="1"/>
+    <col min="7" max="7" width="12.3416666666667" style="7" customWidth="1"/>
+    <col min="8" max="8" width="12.0583333333333" style="7" customWidth="1"/>
+    <col min="9" max="9" width="11.175" style="7" customWidth="1"/>
+    <col min="10" max="10" width="20" style="7" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:10">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" s="8" customFormat="1" spans="1:10">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" spans="1:10">
-      <c r="A2" s="2">
+    <row r="2" s="7" customFormat="1" spans="1:10">
+      <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="B2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="D2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="3"/>
-      <c r="J2" s="2">
+      <c r="F2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="9"/>
+      <c r="J2" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="2">
+      <c r="A3" s="7">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="B3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="2" t="s">
+      <c r="D3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J3" s="2">
+      <c r="F3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="2">
+      <c r="A4" s="7">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="B4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J4" s="2">
+      <c r="D4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="2">
+      <c r="A5" s="7">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="B5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="2" t="s">
+      <c r="D5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J5" s="2">
+      <c r="F5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="2">
+      <c r="A6" s="7">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="2" t="s">
+      <c r="B6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J6" s="2">
+      <c r="D6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="J6" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="2">
+      <c r="A7" s="7">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="2" t="s">
+      <c r="B7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J7" s="2">
+      <c r="D7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="J7" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="2">
+      <c r="A8" s="7">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="2" t="s">
+      <c r="B8" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="2" t="s">
+      <c r="D8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J8" s="2">
+      <c r="F8" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="J8" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="2">
+      <c r="A9" s="7">
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="2" t="s">
+      <c r="B9" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="2" t="s">
+      <c r="D9" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J9" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" s="2" customFormat="1" spans="1:10">
-      <c r="A10" s="2">
+      <c r="F9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" s="7" customFormat="1" spans="1:10">
+      <c r="A10" s="7">
         <v>9</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="4" t="s">
+      <c r="B10" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="J10" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" s="2" customFormat="1" spans="1:10">
-      <c r="A11" s="2">
-        <v>10</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="4" t="s">
+      <c r="D10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="J10" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" s="7" customFormat="1" spans="1:10">
+      <c r="A11" s="7">
+        <v>10</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" s="4" t="s">
+      <c r="D11" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="J11" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" s="2" customFormat="1" spans="1:10">
-      <c r="A12" s="2">
+      <c r="J11" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" s="7" customFormat="1" spans="1:10">
+      <c r="A12" s="7">
         <v>11</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="4" t="s">
+      <c r="B12" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="J12" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" s="2" customFormat="1" spans="1:10">
-      <c r="A13" s="2">
-        <v>12</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="4" t="s">
+      <c r="D12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="J12" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" s="7" customFormat="1" spans="1:10">
+      <c r="A13" s="7">
+        <v>12</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="J13" s="2">
+      <c r="D13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="J13" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="2">
+      <c r="A14" s="7">
         <v>13</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="2" t="s">
+      <c r="B14" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" s="2" t="s">
+      <c r="D14" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="J14" s="2">
+      <c r="J14" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="2">
-        <v>14</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="2" t="s">
+      <c r="A15" s="7">
+        <v>14</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" s="2" t="s">
+      <c r="D15" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J15" s="2">
+      <c r="F15" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="J15" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="2">
+      <c r="A16" s="7">
         <v>15</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="2" t="s">
+      <c r="B16" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" s="2" t="s">
+      <c r="D16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F16" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J16" s="2">
+      <c r="F16" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="J16" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="2">
+      <c r="A17" s="7">
         <v>16</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" s="2" t="s">
+      <c r="B17" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17" s="2" t="s">
+      <c r="D17" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="F17" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J17" s="2">
+      <c r="F17" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="J17" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="2">
+      <c r="A18" s="7">
         <v>17</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" s="2" t="s">
+      <c r="B18" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E18" s="2" t="s">
+      <c r="D18" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F18" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J18" s="2">
+      <c r="F18" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="J18" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="2">
+      <c r="A19" s="7">
         <v>18</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="2" t="s">
+      <c r="B19" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D19" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E19" s="2" t="s">
+      <c r="D19" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="F19" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J19" s="2">
+      <c r="F19" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="J19" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="2">
+      <c r="A20" s="7">
         <v>19</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" s="2" t="s">
+      <c r="B20" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D20" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J20" s="2">
+      <c r="D20" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="J20" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="2">
+      <c r="A21" s="7">
         <v>20</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C21" s="2" t="s">
+      <c r="B21" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D21" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E21" s="2" t="s">
+      <c r="D21" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="F21" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J21" s="2">
+      <c r="F21" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="J21" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="2">
+      <c r="A22" s="7">
         <v>21</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C22" s="2" t="s">
+      <c r="B22" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D22" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E22" s="5" t="s">
+      <c r="D22" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="F22" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="J22" s="2">
+      <c r="F22" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="J22" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="2">
+      <c r="A23" s="7">
         <v>22</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C23" s="2" t="s">
+      <c r="B23" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="D23" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E23" s="5"/>
-      <c r="F23" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="J23" s="2">
+      <c r="D23" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" s="6"/>
+      <c r="F23" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="J23" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="2">
+      <c r="A24" s="7">
         <v>23</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="2" t="s">
+      <c r="B24" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="D24" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J24" s="2">
+      <c r="D24" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="J24" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="2">
+      <c r="A25" s="7">
         <v>24</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="D25" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E25" s="2" t="s">
+      <c r="D25" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="F25" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J25" s="2">
+      <c r="F25" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="J25" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="2">
+      <c r="A26" s="7">
         <v>25</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C26" s="2" t="s">
+      <c r="B26" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D26" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E26" s="2" t="s">
+      <c r="D26" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="F26" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J26" s="2">
+      <c r="F26" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="J26" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="2">
+      <c r="A27" s="7">
         <v>26</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C27" s="2" t="s">
+      <c r="B27" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="D27" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E27" s="2" t="s">
+      <c r="D27" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F27" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J27" s="2">
+      <c r="F27" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="J27" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="2">
+      <c r="A28" s="7">
         <v>27</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C28" s="2" t="s">
+      <c r="B28" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="D28" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E28" s="2" t="s">
+      <c r="D28" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F28" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J28" s="2">
+      <c r="F28" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="J28" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="2">
+      <c r="A29" s="7">
         <v>28</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C29" s="2" t="s">
+      <c r="B29" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="D29" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="J29" s="2">
+      <c r="D29" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F29" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="J29" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="2">
+      <c r="A30" s="7">
         <v>29</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C30" s="2" t="s">
+      <c r="B30" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="D30" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E30" s="5" t="s">
+      <c r="D30" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="F30" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="J30" s="2">
+      <c r="F30" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="J30" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="2">
+      <c r="A31" s="7">
         <v>30</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C31" s="2" t="s">
+      <c r="B31" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="D31" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E31" s="2" t="s">
+      <c r="D31" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F31" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J31" s="2">
+      <c r="F31" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="J31" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="2">
+      <c r="A32" s="7">
         <v>31</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C32" s="2" t="s">
+      <c r="B32" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="D32" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E32" s="2" t="s">
+      <c r="D32" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F32" s="2" t="s">
+      <c r="F32" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="J32" s="2">
+      <c r="J32" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:10">
-      <c r="A33" s="2">
+      <c r="A33" s="7">
         <v>32</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C33" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="D33" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E33" s="2" t="s">
+      <c r="D33" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E33" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F33" s="5" t="s">
+      <c r="F33" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="J33" s="2" t="s">
+      <c r="J33" s="7" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="34" spans="1:10">
-      <c r="A34" s="2">
+      <c r="A34" s="7">
         <v>33</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C34" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="D34" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E34" s="5" t="s">
+      <c r="D34" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E34" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="F34" s="2" t="s">
+      <c r="F34" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="J34" s="2" t="s">
+      <c r="J34" s="7" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2006,31 +2098,417 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="5.75" style="2" customWidth="1"/>
+    <col min="2" max="2" width="9" style="2"/>
+    <col min="3" max="3" width="27.375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="30.5" style="3" customWidth="1"/>
+    <col min="5" max="5" width="37" style="4" customWidth="1"/>
+    <col min="6" max="6" width="36.25" style="2" customWidth="1"/>
+    <col min="7" max="7" width="15" style="2" customWidth="1"/>
+    <col min="8" max="8" width="15.75" style="2" customWidth="1"/>
+    <col min="9" max="9" width="10.625" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:10">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" ht="17.25" spans="1:6">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" ht="17.25" spans="1:6">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" ht="17.25" spans="1:6">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" ht="17.25" spans="1:6">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" ht="17.25" spans="1:6">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" ht="17.25" spans="1:5">
+      <c r="A19" s="2">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="2">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="2">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
